--- a/SiteLists/URL_List.xlsx
+++ b/SiteLists/URL_List.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A193"/>
+  <dimension ref="A2:A112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,1344 +424,777 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sEr_VYspD9U</t>
+          <t>https://www.youtube.com/watch?v=W36DrBQjb6w</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Sjgpo-v5Bg4</t>
+          <t>https://www.youtube.com/watch?v=NY14Z7C1-yg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T8fuM66RTl8</t>
+          <t>https://www.youtube.com/watch?v=razXuWveyc4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TEswEBDLlAY</t>
+          <t>https://www.youtube.com/watch?v=DtxHF-694kY</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=BjRcLlHPG6w</t>
+          <t>https://www.youtube.com/watch?v=HHfAhzahjPE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VTtiafP79B0</t>
+          <t>https://www.youtube.com/watch?v=vCGlggCFBjs</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MudeKeRBrHM</t>
+          <t>https://www.youtube.com/watch?v=oUVqbJsJQM0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aFZoxQNNx7M</t>
+          <t>https://www.youtube.com/watch?v=CJ8Stzn1aLM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pFsnys1z9Zw</t>
+          <t>https://www.youtube.com/watch?v=nZ3gY1sDaVk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Si6UVSsLBdA</t>
+          <t>https://www.youtube.com/watch?v=NGbDgZxmN-8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UFXt7W-Yh04</t>
+          <t>https://www.youtube.com/watch?v=-6pyww1-TQ4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1PSlgt9ys5c</t>
+          <t>https://www.youtube.com/watch?v=ewy3_tMu-t0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RKKyDwMNK14</t>
+          <t>https://www.youtube.com/watch?v=DU-4oSZUrgo</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=R9-ePfnyM5k</t>
+          <t>https://www.youtube.com/watch?v=U1ggQlSE8yI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KyYly9MDn4Q</t>
+          <t>https://www.youtube.com/watch?v=3bQj1MzH9pI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dglOeQqEC-k</t>
+          <t>https://www.youtube.com/watch?v=lnV5pM4OoDM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ozHPGBbMoHU</t>
+          <t>https://www.youtube.com/watch?v=ODMeSRVwX4s</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jHvXmbIC_kg</t>
+          <t>https://www.youtube.com/watch?v=rd5j909zo_Q</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=B7zii54GIvc</t>
+          <t>https://www.youtube.com/watch?v=_xpuIcJXJp0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=0nOuBoJKxIU</t>
+          <t>https://www.youtube.com/watch?v=YcgOTPCrps8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i2O48UkGBP0</t>
+          <t>https://www.youtube.com/watch?v=OaYlDHWug2E</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UbwloedQBbQ</t>
+          <t>https://www.youtube.com/watch?v=fktZmq8oNUM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=-ak-nOPTeM8</t>
+          <t>https://www.youtube.com/watch?v=05Ogo6fVkGY</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ZicyXFSIkJU</t>
+          <t>https://www.youtube.com/watch?v=1swvxV5NpGU</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Qg92jSx-ezc</t>
+          <t>https://www.youtube.com/watch?v=esuuhlp7_Bg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=q_E8RB3IZrw</t>
+          <t>https://www.youtube.com/watch?v=TZCO3faFQPs</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_OuX-mvo0RM</t>
+          <t>https://www.youtube.com/watch?v=GCrcBadwUiI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=cfm5HS9g6fQ</t>
+          <t>https://www.youtube.com/watch?v=9L-WS8xHm1o</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tRSkcUNQPZE</t>
+          <t>https://www.youtube.com/watch?v=zb66BdHU6H0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gwHc-tqsvy0</t>
+          <t>https://www.youtube.com/watch?v=RCUJ8WWtrqg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_YcqR8vIwa8</t>
+          <t>https://www.youtube.com/watch?v=TFdBdBHeJtw</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=A4-nQJNeXp4</t>
+          <t>https://www.youtube.com/watch?v=95DuPuf6O6s</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=iOhHctnFBg8</t>
+          <t>https://www.youtube.com/watch?v=npru6v-Pr94</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dzsULInjj_0</t>
+          <t>https://www.youtube.com/watch?v=es9Fsa1nq0M</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jE-LsaCaHpo</t>
+          <t>https://www.youtube.com/watch?v=gpzns4MYEPQ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zqiQ4rDjLmA</t>
+          <t>https://www.youtube.com/watch?v=HFDVe8c8e14</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=POAF09cz5Kg</t>
+          <t>https://www.youtube.com/watch?v=g1Zxz78Ag2I</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wrFMJ-7SL00</t>
+          <t>https://www.youtube.com/watch?v=8xGb-9J2FqM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zk0FN9axVjo</t>
+          <t>https://www.youtube.com/watch?v=IKAaQdYqgaY</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UsROPbzP6gY</t>
+          <t>https://www.youtube.com/watch?v=SpynofATirY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Av7xSCm3buk</t>
+          <t>https://www.youtube.com/watch?v=QKdkg4e0TMI</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Ca1VDaxOg74</t>
+          <t>https://www.youtube.com/watch?v=Q_PX3fZ2ngo</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qnEwaCKs32Q</t>
+          <t>https://www.youtube.com/watch?v=opHjcBHGl9w</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=50Poeecwy_w</t>
+          <t>https://www.youtube.com/watch?v=Qrb0LnHibUc</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Y8gve9eHnTU</t>
+          <t>https://www.youtube.com/watch?v=l34KH9U8PIY</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=3iaSptgjpAA</t>
+          <t>https://www.youtube.com/watch?v=3p0p3uURNNs</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LME5h0Ll5Fo</t>
+          <t>https://www.youtube.com/watch?v=-XRExwpnmyg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KWCAed_Ta_Q</t>
+          <t>https://www.youtube.com/watch?v=TUowoleKsCU</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RYr1rhwkHsk</t>
+          <t>https://www.youtube.com/watch?v=wLrkeOiV0LI</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4wZMhuLrWE8</t>
+          <t>https://www.youtube.com/watch?v=WPccOu3ABjo</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=kd04vdEq0Sk</t>
+          <t>https://www.youtube.com/watch?v=JBhOHYO_px4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ExDMpnd9q-o</t>
+          <t>https://www.youtube.com/watch?v=h_2Fx1HNGzI</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=rrm4-FCZCCI</t>
+          <t>https://www.youtube.com/watch?v=u2nV_dK5sM4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=R9zhvn8V8iA</t>
+          <t>https://www.youtube.com/watch?v=CDrsJM5g_Qw</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=x8hlkZGxXRE</t>
+          <t>https://www.youtube.com/watch?v=lYsFOyE20oY</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TZc1GtspUeg</t>
+          <t>https://www.youtube.com/watch?v=6iDe2yiIJYk</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8G0EKEWX5h8</t>
+          <t>https://www.youtube.com/watch?v=2oZr5E4lXKc</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FOZonPXMEhc</t>
+          <t>https://www.youtube.com/watch?v=NinY_OM_2JE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=08zcA8Ggnpo</t>
+          <t>https://www.youtube.com/watch?v=22N1S2ZxyIo</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8Dsr8Qbxmog</t>
+          <t>https://www.youtube.com/watch?v=yngkdNFpfYE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gKwsfPCXzHc</t>
+          <t>https://www.youtube.com/watch?v=q1xVt4enicM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sMdio352DsM</t>
+          <t>https://www.youtube.com/watch?v=6ocG3YxNRLk</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WIFRR3qQcX4</t>
+          <t>https://www.youtube.com/watch?v=M7ggGA9IAqA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JkSVkdkymzw</t>
+          <t>https://www.youtube.com/watch?v=aHDBU9K5J_A</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qE42V2nfk6c</t>
+          <t>https://www.youtube.com/watch?v=Rcq1K5_Xl6k</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Ym3FW1fgj_Y</t>
+          <t>https://www.youtube.com/watch?v=N0LcXRrfN1k</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=3Feo5e6CxhI</t>
+          <t>https://www.youtube.com/watch?v=SH3pD7bW3XY</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7j3ZwAmLJW8</t>
+          <t>https://www.youtube.com/watch?v=RbK2cGI83sw</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1HO0cvDh5Aw</t>
+          <t>https://www.youtube.com/watch?v=BI8ONEQ0GO4</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ZkxJRFmEEOs</t>
+          <t>https://www.youtube.com/watch?v=P6eT4zRK6o0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Z0nAK5eF5gk</t>
+          <t>https://www.youtube.com/watch?v=-5H0N_PqRxk</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=THlF7IAWPWY</t>
+          <t>https://www.youtube.com/watch?v=9hAQeirX9MU</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8WaP4cM5soo</t>
+          <t>https://www.youtube.com/watch?v=2bfBcadW7jc</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Itux0XCT7gc</t>
+          <t>https://www.youtube.com/watch?v=vjDnV9ACb7k</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Kbbzwabgtok</t>
+          <t>https://www.youtube.com/watch?v=FPXJB8mlyYs</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=w6BZY_iqPx8</t>
+          <t>https://www.youtube.com/watch?v=mHiubbdBw2I</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ceQn5ABCL-Y</t>
+          <t>https://www.youtube.com/watch?v=zgCX1SuDGmY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Zt9QoX_NGz8&amp;pp=qAMBugMGCgJwdBAB</t>
+          <t>https://www.youtube.com/watch?v=xx39TjeRxp8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=nYcQyWY2o7c</t>
+          <t>https://www.youtube.com/watch?v=-QX4cxXTLTI</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=drZjicTxnRs</t>
+          <t>https://www.youtube.com/watch?v=bTLouJBj9Nk</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CkFwpQKBvNk&amp;pp=qAMBugMGCgJwdBAB</t>
+          <t>https://www.youtube.com/watch?v=LxfDmPWoJb8</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ej2yPF7TrYs</t>
+          <t>https://www.youtube.com/watch?v=1hmHnBITR14</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OTsR-7dKOLc</t>
+          <t>https://www.youtube.com/watch?v=UgKxW9SsiTo</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=k1Q1BK6xL4s</t>
+          <t>https://www.youtube.com/watch?v=Tr-zQwLq50I</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=uiAwUVzhv4I</t>
+          <t>https://www.youtube.com/watch?v=ySAV7ojRmm4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=908TViwJfNE</t>
+          <t>https://www.youtube.com/watch?v=5jvqzdsOicY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=welXjak5-LQ</t>
+          <t>https://www.youtube.com/watch?v=ALvmAPFe_CM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Voqx57JcGC8</t>
+          <t>https://www.youtube.com/watch?v=Wpx6uLZEJPI</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=P_5VcL4wkUk</t>
+          <t>https://www.youtube.com/watch?v=PcpeMN4YG7g</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zCuqsDdcqTc</t>
+          <t>https://www.youtube.com/watch?v=HMsjNrbKmps</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zLYX6uLt7Fw</t>
+          <t>https://www.youtube.com/watch?v=LsVGXIOZMl0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xeHbgAkW3UA</t>
+          <t>https://www.youtube.com/watch?v=SzLSctOgWBU</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dVP4lwdg628</t>
+          <t>https://www.youtube.com/watch?v=obPyl15Q7LY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=0pBKASvCGJE</t>
+          <t>https://www.youtube.com/watch?v=7DlXq40UcMY</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=bIihv4dn6n0&amp;pp=qAMBugMGCgJwdBAB</t>
+          <t>https://www.youtube.com/watch?v=NaziKN_mwas</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=cKYpFo7hlAE</t>
+          <t>https://www.youtube.com/watch?v=cIT6T7A4zYg</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ZsTWi9qqLys</t>
+          <t>https://www.youtube.com/watch?v=1X0Z6RK6rug</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ydV2du5i838</t>
+          <t>https://www.youtube.com/watch?v=saBJDJhoRj8</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jK6bkFaDvCM</t>
+          <t>https://www.youtube.com/watch?v=HNlNDMQYjtk</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FYXLgSIML8c</t>
+          <t>https://www.youtube.com/watch?v=GAu1vgZmpIg</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CTqfkDzjMw0</t>
+          <t>https://www.youtube.com/watch?v=PYIHFKArFkI</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=n5AMPjGYn6g</t>
+          <t>https://www.youtube.com/watch?v=sAHnBa4zOys</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Mqd3htwKX_c</t>
+          <t>https://www.youtube.com/watch?v=-WItuYgpfjg</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=t3BgbOYaQOA</t>
+          <t>https://www.youtube.com/watch?v=01sHT70rI3c</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FAd6TQlu8ko</t>
+          <t>https://www.youtube.com/watch?v=GBFDQPqu5FU</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CVj_njL4wFA</t>
+          <t>https://www.youtube.com/watch?v=3oozi1hbCks</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xmfMK2cS6Ec</t>
+          <t>https://www.youtube.com/watch?v=D3XhYSAPBgc</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=3p6KAHadY8Y</t>
+          <t>https://www.youtube.com/watch?v=ZUrtyAL6NCM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JbaCk3Ja1MQ</t>
+          <t>https://www.youtube.com/watch?v=UsIRJFdT_wc</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=EnJ5GC2ShR4</t>
+          <t>https://www.youtube.com/watch?v=yiTQ80u9psU</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wziTpnKsCA4&amp;pp=qAMBugMGCgJwdBAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=-Nt9fa8jZUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=5vb6aPcdXrA</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ooqJahwZhEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=9Zgr6GZJqFo</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=fLbXK-p8B1U</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=NtQUP14YenQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=SSQeAcL1I6I</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=v_9E2_Ib71Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=greFdJ-1dvI&amp;pp=qAMBugMGCgJwdBAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=68Aazdo4_4Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=S20vzFapvWk</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=o1HOmgCzwVo</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=bc-N4gskobw</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=dqPlsD1K0aI</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=EQFpY48cQXw</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=BvMCsZA-CEo</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=26MOyeApQF4</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=e_5AIIke91Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=o-NcGCwhKJk</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=bKMiEkkyFt4</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=dwSfWqv6wx0</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=GcWbzsoXZLs</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=y8SwKONLDv0</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=1AtYKgXCbGg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=lgDsAKUv_zk</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=N3xXL98se84&amp;pp=qAMBugMGCgJwdBAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=e4ext68G-u0</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=20I5QU0kHEg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=dY9Lxlh_-fA</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=9xFJ4523iuA</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=WAR6J3a0MPQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=9qZ3s1Wq4Fs</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=nWkGDXDOk64</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=a8bqx-drQtE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=14BV4A_a4Vc</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=My1OtgZoylU</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=x8tTHYsTCRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iv4TpW_jTpA</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=2dFfUYwIh_U</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=QauhC8e6i5M</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=u0HIVP0bloQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=otSmQr_BcjA</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=xrteN5iErBI</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=lGaLmxDHBVY</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=kuA7roo00YQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=9_8nB0At-Ko</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=zsdIXFvf9Xs</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=DislSzowucQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=huJ1Kwte5zc</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=NM9PQBZ3kdc</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=99CzHnM_GxA</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ATM7DWEV9mA</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=SN6e4-ffuUQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=w_XLIX7Qfh0</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=mHxmQJAN8dU</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=RGMc7hiN1To</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=cu2D0A2UF5k</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=zrVftnP8upg</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=l7ONw6seHQo</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=5AggQNxEX1g</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=wHyPEZCAeHg&amp;pp=qAMBugMGCgJwdBAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=nkUpezkKAwo</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=PDAzYnIxROE</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Y1xn9YYrxNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=QqUcHsjtGRY</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=zjo-u4dFCmY</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Iyv9YmfIqHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=dPVTKB5C6zs</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Kb0VNgu4udU</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=hQXo420S49k</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=p_WIfyIT2Ic</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=CH758sQ9mcU</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=B4M-ofc6BgM</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=sJaVwJTMv_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=I8xcObR3Je4</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=kzZtYuZgohg</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=08joqbrhaYE</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=M0GDNV5ajlU</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=0aga9lBpDxo</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=xuild1rcR34</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=0Qw25roU3Ig</t>
+          <t>https://www.youtube.com/watch?v=enHvlzKtwnw</t>
         </is>
       </c>
     </row>
